--- a/flows/PDBC_fund_flow_data.xlsx
+++ b/flows/PDBC_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2340"/>
+  <dimension ref="A1:B2358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23835,6 +23835,186 @@
         <v>5.3312</v>
       </c>
     </row>
+    <row r="2341">
+      <c r="A2341" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B2341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B2342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B2343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B2344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B2345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B2346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2349" t="n">
+        <v>11.356</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2350" t="n">
+        <v>-2.676</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2351" t="n">
+        <v>-7.3172</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2355" t="n">
+        <v>-13.492</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2356" t="n">
+        <v>-6.726</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B2358" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
